--- a/database.xlsx
+++ b/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWH\Desktop\company_item_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C15935-7853-4829-BEAD-182012F49A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9C5B8-38D5-493B-9319-FA43F6B38E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D49B352-04BF-4848-B9F5-45BE39FE3D7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>item_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -304,6 +304,10 @@
   </si>
   <si>
     <t>박아무개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_full_count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57752D6B-FE7B-43EE-BBFE-4A9F694087B0}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,13 +700,13 @@
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -731,22 +735,25 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -771,14 +778,20 @@
       <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -803,14 +816,20 @@
       <c r="I3" t="s">
         <v>79</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -835,8 +854,14 @@
       <c r="I4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -861,8 +886,14 @@
       <c r="I5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -887,8 +918,14 @@
       <c r="I6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -913,11 +950,17 @@
       <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -942,8 +985,14 @@
       <c r="I8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -968,8 +1017,14 @@
       <c r="I9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -994,8 +1049,14 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1020,8 +1081,14 @@
       <c r="I11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1046,8 +1113,14 @@
       <c r="I12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1072,8 +1145,14 @@
       <c r="I13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1098,8 +1177,14 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1124,8 +1209,14 @@
       <c r="I15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1150,8 +1241,14 @@
       <c r="I16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1176,8 +1273,14 @@
       <c r="I17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1202,8 +1305,14 @@
       <c r="I18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1228,8 +1337,14 @@
       <c r="I19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1254,8 +1369,14 @@
       <c r="I20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1280,8 +1401,14 @@
       <c r="I21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1306,8 +1433,14 @@
       <c r="I22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1332,8 +1465,14 @@
       <c r="I23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1358,8 +1497,14 @@
       <c r="I24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1384,11 +1529,17 @@
       <c r="I25" t="s">
         <v>79</v>
       </c>
-      <c r="L25" t="s">
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1413,14 +1564,20 @@
       <c r="I26" t="s">
         <v>79</v>
       </c>
-      <c r="L26" t="s">
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
         <v>63</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -1445,14 +1602,20 @@
       <c r="I27" t="s">
         <v>79</v>
       </c>
-      <c r="L27" t="s">
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
         <v>63</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1477,17 +1640,23 @@
       <c r="I28" t="s">
         <v>79</v>
       </c>
-      <c r="K28" t="s">
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
         <v>82</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>64</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1512,14 +1681,20 @@
       <c r="I29" t="s">
         <v>79</v>
       </c>
-      <c r="L29" t="s">
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
         <v>65</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1544,14 +1719,20 @@
       <c r="I30" t="s">
         <v>79</v>
       </c>
-      <c r="L30" t="s">
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
         <v>66</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1576,14 +1757,20 @@
       <c r="I31" t="s">
         <v>79</v>
       </c>
-      <c r="L31" t="s">
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
         <v>67</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -1608,8 +1795,14 @@
       <c r="I32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1634,8 +1827,14 @@
       <c r="I33" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -1660,8 +1859,14 @@
       <c r="I34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -1685,6 +1890,12 @@
       </c>
       <c r="I35" t="s">
         <v>79</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWH\Desktop\company_item_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9C5B8-38D5-493B-9319-FA43F6B38E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C6753-C536-46A3-A3CE-23C803B34D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D49B352-04BF-4848-B9F5-45BE39FE3D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$270</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="431">
   <si>
     <t>item_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -308,6 +311,1047 @@
   </si>
   <si>
     <t>item_full_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 십자 전자 +P.0x100mm</t>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 십자 전자 +P.0x150mm</t>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 일자 전자 -2.5mmx75mm</t>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 일자 전자 -3mmx100mm</t>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 일자 전자 -3mmx150mm</t>
+  </si>
+  <si>
+    <t>베셀 드라이버 9900 전자조정 -1.8 X 50</t>
+  </si>
+  <si>
+    <t>보쉬 충전 전동드릴</t>
+  </si>
+  <si>
+    <t>컨넥터 드라이버 BNC F형 콘넥터 드라이버 HT-2208F</t>
+  </si>
+  <si>
+    <t>드라이버비트 200_110</t>
+  </si>
+  <si>
+    <t>양용드라이버5300W 150</t>
+  </si>
+  <si>
+    <t>육각너트드라이버</t>
+  </si>
+  <si>
+    <t>인두기 980 세트</t>
+  </si>
+  <si>
+    <t>주먹용드라이버</t>
+  </si>
+  <si>
+    <t>디지털 테스터기</t>
+  </si>
+  <si>
+    <t>DVR B/D DS-4316HWI-E</t>
+  </si>
+  <si>
+    <t>DVR B/D DS-4316HFVI-E</t>
+  </si>
+  <si>
+    <t>[INTEL] 코어9세대 i9-9960X  cpu</t>
+  </si>
+  <si>
+    <t>[ASUS] TUF X299 MARK 2 코잇 보드</t>
+  </si>
+  <si>
+    <t>[삼성전자] 삼성 DDR4 16GB PC4-21300 2개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[삼성전자] 970 EVO series 500GB M.2 NVMe 500GB MZ-V7E500BW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Western Digital] BLUE HDD 2TB WD20EZAZ </t>
+  </si>
+  <si>
+    <t>[GIGABYTE] GeForce RTX 2080 Ti UDV 터보포스 D6 11GB 2대</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CORSAIR] HX1200 80PLUS PLATINUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[NZXT] KRAKEN X72 BRAVOTEC </t>
+  </si>
+  <si>
+    <t>[3RSYS] IR5000 블랙 강화유리</t>
+  </si>
+  <si>
+    <t>딥러닝개발용 보드 JETSON NANO</t>
+  </si>
+  <si>
+    <t>딥러닝개발용 보드 JETSON XAVIER</t>
+  </si>
+  <si>
+    <t>[TEST용 PC부품] SSD 250G</t>
+  </si>
+  <si>
+    <t>[TEST용 PC부품] HDD 3TB</t>
+  </si>
+  <si>
+    <t>[TEST용 PC부품] PC CASE</t>
+  </si>
+  <si>
+    <t>[서버용 부품] HDD 2TB</t>
+  </si>
+  <si>
+    <t>니퍼</t>
+  </si>
+  <si>
+    <t>[출입통제시스템] DS-K1T671M</t>
+  </si>
+  <si>
+    <t>[Transcend] MSA230S mSATA SSD 256GB TLC</t>
+  </si>
+  <si>
+    <t>[컴소닉] [스탠드마이크] CM-5010 PRO</t>
+  </si>
+  <si>
+    <t>[EFM] ipTIME H6005mini [스위칭허브/5포트/1000Mbps]</t>
+  </si>
+  <si>
+    <t>[강원전자] NETmate 랜케이블 테스터기, KW</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 부속품_[KEYES] 아두이노용 Mini MP3 Player 모듈 [KE0092]</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 부속품_[SMG] 아두이노 MP3 디코더 모듈 [SZH-SDBJ-002]</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 부속품_[OEM (중국)] Arduino NANO 아두이노 나노 호환보드 CH340 [SZH-EK025]</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 부속품_[OEM (중국)] Arduino Uno (R3) 호환보드 [SZH-EK002]</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 부속품_[팔콘] 전문가용 열풍기 FHG-4200C</t>
+  </si>
+  <si>
+    <t>[ADC 개발] 오디오 증폭기 엠프 채널 4 웨이 4 x 41W AMP</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]_데드볼트(GD-9000)</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]_국산DC12V_2A</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]_이엠락(GD-1000)</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]_유선도어센서</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]_LED스위치</t>
+  </si>
+  <si>
+    <t>[출입통제시스템]자동개폐장치 데드볼트</t>
+  </si>
+  <si>
+    <t>납릴 거치대</t>
+  </si>
+  <si>
+    <t>LED 클립형 PCB 작업대</t>
+  </si>
+  <si>
+    <t>[NVR용] RAID card</t>
+  </si>
+  <si>
+    <t>[NVR용] mini SAS to SATA 내장형 변환 케이블 1m</t>
+  </si>
+  <si>
+    <t>[NVR용] RAID용 하드렉</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 CPU 코어9세대 i7-9700(3Ghz)</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 메인보드 PRIME Z390M-PLUS</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 램 DDR4 8GB 2개</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 SSD Blue 3D SSD Series 500GB 2개</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 RED HDD 4TB WD40EFRX(3.5") 3개</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 그래픽카드 GeForce GTX 1650 MINI</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 PC CASE 4U LCD 핫스왑*8 USB3.0</t>
+  </si>
+  <si>
+    <t>[NVR용] PC부품 파워 Performance II HV 1000W</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 광먹스 디먹스 kc인증용 어댑터 (태영전자)</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 광먹스 디먹스 kc인증용 어댑터 (스카이플러스)</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 광먹스 디먹스 kc인증용 어댑터 (가이오전자)</t>
+  </si>
+  <si>
+    <t>[PC 기반 장비 자체 개발] 4U CASE (다이나젠)</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 감시장치용 하드디스크</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 공유기</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템]  전원스위치</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템]  모니터 고정 볼트</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 광먹스 디먹스 kc인증용 RS232 to 485 시리얼컨버터</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] CPU I9-10900K</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] 메인보드 TUF Gaming Z490-PLUS</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] 램 DDR4 16GB PC4-25600 2개</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] SSD 970 EVO 500GB MZ-V7E500BW</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] RED HDD 4TB WD40EFRX</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] 그래픽카드 GeForce RTX 2080 SUPER 8G</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] CASE HX1000 80PLUS PLATINUM</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] NH-L9x65 [CPU쿨러]</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] 시리얼카드 NEXT-1Serial EX (1CH)</t>
+  </si>
+  <si>
+    <t>[누수감지시스템]  Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>[누수감지시스템] RS232C 시리얼 제어 4채널 I/O모듈</t>
+  </si>
+  <si>
+    <t>PC파워스플라이용 테스터기</t>
+  </si>
+  <si>
+    <t>정전기 방지 핀셋 키트</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 120mm 쿨러 2개</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 120mm 팬그릴 3개</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 스테리오 연장 케이블 2m 3개</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 스피커</t>
+  </si>
+  <si>
+    <t>연구개발용 pc case</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 카메라 전원 2개</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 팬 허브 2개</t>
+  </si>
+  <si>
+    <t>ALF19080001</t>
+  </si>
+  <si>
+    <t>ALF19080002</t>
+  </si>
+  <si>
+    <t>ALF19080003</t>
+  </si>
+  <si>
+    <t>ALF19080004</t>
+  </si>
+  <si>
+    <t>ALF19080005</t>
+  </si>
+  <si>
+    <t>ALF19080006</t>
+  </si>
+  <si>
+    <t>ALF19080007</t>
+  </si>
+  <si>
+    <t>ALF19080008</t>
+  </si>
+  <si>
+    <t>ALF19090001</t>
+  </si>
+  <si>
+    <t>ALF19090002</t>
+  </si>
+  <si>
+    <t>ALF19090003</t>
+  </si>
+  <si>
+    <t>ALF19090004</t>
+  </si>
+  <si>
+    <t>ALF19090005</t>
+  </si>
+  <si>
+    <t>ALF19090006</t>
+  </si>
+  <si>
+    <t>ALF19090007</t>
+  </si>
+  <si>
+    <t>ALF19090008</t>
+  </si>
+  <si>
+    <t>ALF19090009</t>
+  </si>
+  <si>
+    <t>ALP19090001</t>
+  </si>
+  <si>
+    <t>ALP19090002</t>
+  </si>
+  <si>
+    <t>ALP19100001</t>
+  </si>
+  <si>
+    <t>ALP19100002</t>
+  </si>
+  <si>
+    <t>ALP19100003</t>
+  </si>
+  <si>
+    <t>ALP19110001</t>
+  </si>
+  <si>
+    <t>ALF20010001</t>
+  </si>
+  <si>
+    <t>ALF20020001</t>
+  </si>
+  <si>
+    <t>ALP20020001</t>
+  </si>
+  <si>
+    <t>ALP20030001</t>
+  </si>
+  <si>
+    <t>ALP20030002</t>
+  </si>
+  <si>
+    <t>ALP20030006</t>
+  </si>
+  <si>
+    <t>ALP20030007</t>
+  </si>
+  <si>
+    <t>ALP20030008</t>
+  </si>
+  <si>
+    <t>ALF20030001</t>
+  </si>
+  <si>
+    <t>ALP20030009</t>
+  </si>
+  <si>
+    <t>ALP20030010</t>
+  </si>
+  <si>
+    <t>ALP20030011</t>
+  </si>
+  <si>
+    <t>ALP20030012</t>
+  </si>
+  <si>
+    <t>ALP20030013</t>
+  </si>
+  <si>
+    <t>ALP20030014</t>
+  </si>
+  <si>
+    <t>ALP20030015</t>
+  </si>
+  <si>
+    <t>ALP20030016</t>
+  </si>
+  <si>
+    <t>ALP20030017</t>
+  </si>
+  <si>
+    <t>ALP20030018</t>
+  </si>
+  <si>
+    <t>ALP20030019</t>
+  </si>
+  <si>
+    <t>ALP20030020</t>
+  </si>
+  <si>
+    <t>ALP20030021</t>
+  </si>
+  <si>
+    <t>ALP20040001</t>
+  </si>
+  <si>
+    <t>ALF20060001</t>
+  </si>
+  <si>
+    <t>ALF20060002</t>
+  </si>
+  <si>
+    <t>ALP20060001</t>
+  </si>
+  <si>
+    <t>ALP20060002</t>
+  </si>
+  <si>
+    <t>ALP20060003</t>
+  </si>
+  <si>
+    <t>ALP20060004</t>
+  </si>
+  <si>
+    <t>ALP20060005</t>
+  </si>
+  <si>
+    <t>ALP20060006</t>
+  </si>
+  <si>
+    <t>ALP20060007</t>
+  </si>
+  <si>
+    <t>ALP20060008</t>
+  </si>
+  <si>
+    <t>ALP20070001</t>
+  </si>
+  <si>
+    <t>ALP20070002</t>
+  </si>
+  <si>
+    <t>ALP20070003</t>
+  </si>
+  <si>
+    <t>ALP20090001</t>
+  </si>
+  <si>
+    <t>ALP20090002</t>
+  </si>
+  <si>
+    <t>ALF20090001</t>
+  </si>
+  <si>
+    <t>ALF20090002</t>
+  </si>
+  <si>
+    <t>ALP20110001</t>
+  </si>
+  <si>
+    <t>LG모니터</t>
+  </si>
+  <si>
+    <t>PC 모니터</t>
+  </si>
+  <si>
+    <t>F/O Module  - Video IN 4CH, Audio IN, Ethernet, RS, USB, I/O</t>
+  </si>
+  <si>
+    <t>F/O Module - Video OUT 4CH, Audio OUT, Ethernet, RS, USB, I/O</t>
+  </si>
+  <si>
+    <t>Data Module - I/O 8/4CH, 1G Ethernet 2port, RS232 2port, RS422/485 6port, Audio In/Out</t>
+  </si>
+  <si>
+    <t>Video Module - LC Optic, Video, Audio, RS485, RS422, I/O 8CH</t>
+  </si>
+  <si>
+    <t>WDM Switch - Optic 1.25G 6CH, 2.5G 2CH</t>
+  </si>
+  <si>
+    <t>USB JTAG-ISP</t>
+  </si>
+  <si>
+    <t>[휴대용모니터]SC-IPM07PRO</t>
+  </si>
+  <si>
+    <t>공구걸이대 SS-AFM915</t>
+  </si>
+  <si>
+    <t>작업대 SB-MWBP</t>
+  </si>
+  <si>
+    <t>웨이브 콤프레샤 1마력</t>
+  </si>
+  <si>
+    <t>5m 카플러 에어호스</t>
+  </si>
+  <si>
+    <t>일반에어건</t>
+  </si>
+  <si>
+    <t>IP PTZ CAMERA_VPM-4600RH</t>
+  </si>
+  <si>
+    <t>BRACKET_SBP-4600RH</t>
+  </si>
+  <si>
+    <t>연구소 책상</t>
+  </si>
+  <si>
+    <t>삼성 냉난방기 AP072RAPDBH1(냉난방18평)</t>
+  </si>
+  <si>
+    <t>삼성 냉난방기 AP072RAPDBH1(냉난방18평)_배수모타</t>
+  </si>
+  <si>
+    <t>캐리어 냉난방기 CSV-Q121CH(냉난방12평)</t>
+  </si>
+  <si>
+    <t>캐리어 냉난방기 CSV-Q121CH(냉난방12평)_배수모타</t>
+  </si>
+  <si>
+    <t>연구소 의자</t>
+  </si>
+  <si>
+    <t>공장 의자</t>
+  </si>
+  <si>
+    <t>크롬렉</t>
+  </si>
+  <si>
+    <t>Web Camera</t>
+  </si>
+  <si>
+    <t>Web Camera 연장케이블</t>
+  </si>
+  <si>
+    <t>IP 공유기</t>
+  </si>
+  <si>
+    <t>개발용 Stand Computer 사무용추천PC_R002 (R3/내장그래픽)</t>
+  </si>
+  <si>
+    <t>책장(이케아)</t>
+  </si>
+  <si>
+    <t>[DELL] 모니터 P2719H</t>
+  </si>
+  <si>
+    <t>[NEXI] 넥시 USB Type-C to 올인원 컨버터 [NX-Y9115] [NX510]</t>
+  </si>
+  <si>
+    <t>[DELL] 인스피론 15 7590 D001I759003KR i7-9750H Win10Pro [8GB RAM 추가 (총16GB)]</t>
+  </si>
+  <si>
+    <t>[HP] 14s-dk0111AU [4GB RAM 추가(총8GB)]</t>
+  </si>
+  <si>
+    <t>[DELL] P2719H 1대</t>
+  </si>
+  <si>
+    <t>HELMER NN 이동식서랍U 28x69 화이트 AP CN(이케아)</t>
+  </si>
+  <si>
+    <t>수납장 35x35 메탈/오렌지 AP CN(이케아)</t>
+  </si>
+  <si>
+    <t>책상 73x50 화이트 AP(이케아)</t>
+  </si>
+  <si>
+    <t>pc case (미수령)</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 먹스하드웨어</t>
+  </si>
+  <si>
+    <t>[호주 수입장비 자체 개발용] 디먹스하드웨어</t>
+  </si>
+  <si>
+    <t>바코드 프린터기</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 열화상 카메라(키오스크)</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 운영장치 PC</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] DID 모니터</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 감시장치 PC</t>
+  </si>
+  <si>
+    <t>[고열감지 경보시스템] 비접촉 체온계</t>
+  </si>
+  <si>
+    <t>[키오스크_가위바위보 게임] TEST용 Azure Kinect</t>
+  </si>
+  <si>
+    <t>책상</t>
+  </si>
+  <si>
+    <t>의자</t>
+  </si>
+  <si>
+    <t>블루투스 키보드</t>
+  </si>
+  <si>
+    <t>DELL 27인치 모니터</t>
+  </si>
+  <si>
+    <t>다용도 보관함 15칸</t>
+  </si>
+  <si>
+    <t>연구개발 관련 도서_SwiftUI 기반의 IOS 프로그래밍</t>
+  </si>
+  <si>
+    <t>연구개발 관련 도서_파이썬 웹프로그래밍 개정판</t>
+  </si>
+  <si>
+    <t>연구개발 관련 도서_파이썬 웹프로그래밍 실전편</t>
+  </si>
+  <si>
+    <t>연구개발 관련 도서_Flask기반의 파이썬 웹프로그래밍</t>
+  </si>
+  <si>
+    <t>연구개발 관련 도서_OpenCV 4로 배우는 컴퓨터 비전과 머신 러닝</t>
+  </si>
+  <si>
+    <t>디지털 멀티메타</t>
+  </si>
+  <si>
+    <t>루빼</t>
+  </si>
+  <si>
+    <t>콘덴서측정기</t>
+  </si>
+  <si>
+    <t>납 흡입기</t>
+  </si>
+  <si>
+    <t>원형 자화기</t>
+  </si>
+  <si>
+    <t>연구개발용 PC</t>
+  </si>
+  <si>
+    <t>연구개발용 키보드</t>
+  </si>
+  <si>
+    <t>연구개발용 마우스</t>
+  </si>
+  <si>
+    <t>연구개발용 DELL 27인치 모니터</t>
+  </si>
+  <si>
+    <t>연구개발용 5포트 스위치 허브</t>
+  </si>
+  <si>
+    <t>연구개발용 USB 3.0 HUB</t>
+  </si>
+  <si>
+    <t>파티션</t>
+  </si>
+  <si>
+    <t>파티션 고정대</t>
+  </si>
+  <si>
+    <t>스피커</t>
+  </si>
+  <si>
+    <t>[키오스크_가위바위보 게임] Depth 카메라</t>
+  </si>
+  <si>
+    <t>ALP19050001</t>
+  </si>
+  <si>
+    <t>ALF19050001</t>
+  </si>
+  <si>
+    <t>ALP19050002</t>
+  </si>
+  <si>
+    <t>ALF19050002</t>
+  </si>
+  <si>
+    <t>ALP19050003</t>
+  </si>
+  <si>
+    <t>ALP19070001</t>
+  </si>
+  <si>
+    <t>ALP19070002</t>
+  </si>
+  <si>
+    <t>ALP19070003</t>
+  </si>
+  <si>
+    <t>ALP19070004</t>
+  </si>
+  <si>
+    <t>ALP19070005</t>
+  </si>
+  <si>
+    <t>ALP19070006</t>
+  </si>
+  <si>
+    <t>ALP19080001</t>
+  </si>
+  <si>
+    <t>ALP19080002</t>
+  </si>
+  <si>
+    <t>ALF19080009</t>
+  </si>
+  <si>
+    <t>ALF19080010</t>
+  </si>
+  <si>
+    <t>ALP19090003</t>
+  </si>
+  <si>
+    <t>ALP19090004</t>
+  </si>
+  <si>
+    <t>ALF19090010</t>
+  </si>
+  <si>
+    <t>ALF19090011</t>
+  </si>
+  <si>
+    <t>ALF19090012</t>
+  </si>
+  <si>
+    <t>ALF19090013</t>
+  </si>
+  <si>
+    <t>ALP19090005</t>
+  </si>
+  <si>
+    <t>ALP19100004</t>
+  </si>
+  <si>
+    <t>ALP19100005</t>
+  </si>
+  <si>
+    <t>ALF19110001</t>
+  </si>
+  <si>
+    <t>ALF19110002</t>
+  </si>
+  <si>
+    <t>ALP19110002</t>
+  </si>
+  <si>
+    <t>ALP19110003</t>
+  </si>
+  <si>
+    <t>ALP19110004</t>
+  </si>
+  <si>
+    <t>ALP19110005</t>
+  </si>
+  <si>
+    <t>ALP19110006</t>
+  </si>
+  <si>
+    <t>ALP19110007</t>
+  </si>
+  <si>
+    <t>ALP19110008</t>
+  </si>
+  <si>
+    <t>ALP19110009</t>
+  </si>
+  <si>
+    <t>ALP19110010</t>
+  </si>
+  <si>
+    <t>ALP19110011</t>
+  </si>
+  <si>
+    <t>ALP19110012</t>
+  </si>
+  <si>
+    <t>ALP19110013</t>
+  </si>
+  <si>
+    <t>ALF19110003</t>
+  </si>
+  <si>
+    <t>ALF19110004</t>
+  </si>
+  <si>
+    <t>ALF19110005</t>
+  </si>
+  <si>
+    <t>ALP19100014</t>
+  </si>
+  <si>
+    <t>ALF19110006</t>
+  </si>
+  <si>
+    <t>ALF19110007</t>
+  </si>
+  <si>
+    <t>ALF19110008</t>
+  </si>
+  <si>
+    <t>ALP19120001</t>
+  </si>
+  <si>
+    <t>ALP19120002</t>
+  </si>
+  <si>
+    <t>ALP19120003</t>
+  </si>
+  <si>
+    <t>ALP19120004</t>
+  </si>
+  <si>
+    <t>ALP19120005</t>
+  </si>
+  <si>
+    <t>ALP19120006</t>
+  </si>
+  <si>
+    <t>ALP19120007</t>
+  </si>
+  <si>
+    <t>ALP19120008</t>
+  </si>
+  <si>
+    <t>ALP19120009</t>
+  </si>
+  <si>
+    <t>ALF20020002</t>
+  </si>
+  <si>
+    <t>ALP20030022</t>
+  </si>
+  <si>
+    <t>ALP20030023</t>
+  </si>
+  <si>
+    <t>ALP20030024</t>
+  </si>
+  <si>
+    <t>ALP20030025</t>
+  </si>
+  <si>
+    <t>ALP20030003</t>
+  </si>
+  <si>
+    <t>ALP20030004</t>
+  </si>
+  <si>
+    <t>ALP20030005</t>
+  </si>
+  <si>
+    <t>ALP20030026</t>
+  </si>
+  <si>
+    <t>ALP20030027</t>
+  </si>
+  <si>
+    <t>ALF20030002</t>
+  </si>
+  <si>
+    <t>ALP20030028</t>
+  </si>
+  <si>
+    <t>ALF20030003</t>
+  </si>
+  <si>
+    <t>ALP20030029</t>
+  </si>
+  <si>
+    <t>ALP20030030</t>
+  </si>
+  <si>
+    <t>ALF20040001</t>
+  </si>
+  <si>
+    <t>ALP20040002</t>
+  </si>
+  <si>
+    <t>ALP20040003</t>
+  </si>
+  <si>
+    <t>ALF20040002</t>
+  </si>
+  <si>
+    <t>ALP20060009</t>
+  </si>
+  <si>
+    <t>ALP20070004</t>
+  </si>
+  <si>
+    <t>ALP20070005</t>
+  </si>
+  <si>
+    <t>ALP20090003</t>
+  </si>
+  <si>
+    <t>ALF20090003</t>
+  </si>
+  <si>
+    <t>ALF20090004</t>
+  </si>
+  <si>
+    <t>ALF20090005</t>
+  </si>
+  <si>
+    <t>ALF20100001</t>
+  </si>
+  <si>
+    <t>ALF20100002</t>
+  </si>
+  <si>
+    <t>ALF20100003</t>
+  </si>
+  <si>
+    <t>ALP20100001</t>
+  </si>
+  <si>
+    <t>ALP20100002</t>
+  </si>
+  <si>
+    <t>ALP20100003</t>
+  </si>
+  <si>
+    <t>ALP20100004</t>
+  </si>
+  <si>
+    <t>ALP20100005</t>
+  </si>
+  <si>
+    <t>ALF20100004</t>
+  </si>
+  <si>
+    <t>ALF20100005</t>
+  </si>
+  <si>
+    <t>ALF20100006</t>
+  </si>
+  <si>
+    <t>ALF20100007</t>
+  </si>
+  <si>
+    <t>ALF20100008</t>
+  </si>
+  <si>
+    <t>ALF20100009</t>
+  </si>
+  <si>
+    <t>ALF20100010</t>
+  </si>
+  <si>
+    <t>ALP20100006</t>
+  </si>
+  <si>
+    <t>ALP20100007</t>
+  </si>
+  <si>
+    <t>ALP20100008</t>
+  </si>
+  <si>
+    <t>ALP20100009</t>
+  </si>
+  <si>
+    <t>ALP20100010</t>
+  </si>
+  <si>
+    <t>ALP20110002</t>
+  </si>
+  <si>
+    <t>ALP20110003</t>
+  </si>
+  <si>
+    <t>ALP20110004</t>
+  </si>
+  <si>
+    <t>ALP20110005</t>
+  </si>
+  <si>
+    <t>ALP20110006</t>
+  </si>
+  <si>
+    <t>ALP20110007</t>
+  </si>
+  <si>
+    <t>ALP20110008</t>
+  </si>
+  <si>
+    <t>ALP20110009</t>
+  </si>
+  <si>
+    <t>ALP20110010</t>
+  </si>
+  <si>
+    <t>ALP20110011</t>
+  </si>
+  <si>
+    <t>ALF20110001</t>
+  </si>
+  <si>
+    <t>ALP20110012</t>
+  </si>
+  <si>
+    <t>ALP20110013</t>
+  </si>
+  <si>
+    <t>ALP20110014</t>
+  </si>
+  <si>
+    <t>ALF20110002</t>
+  </si>
+  <si>
+    <t>ALP20110015</t>
+  </si>
+  <si>
+    <t>수공구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57752D6B-FE7B-43EE-BBFE-4A9F694087B0}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,10 +1823,7 @@
         <v>79</v>
       </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>61</v>
@@ -817,10 +1858,7 @@
         <v>79</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>61</v>
@@ -855,10 +1893,7 @@
         <v>79</v>
       </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -887,10 +1922,7 @@
         <v>79</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -919,10 +1951,7 @@
         <v>79</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -951,10 +1980,7 @@
         <v>79</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>83</v>
@@ -986,10 +2012,7 @@
         <v>79</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1018,10 +2041,7 @@
         <v>79</v>
       </c>
       <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1050,10 +2070,7 @@
         <v>79</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1082,10 +2099,7 @@
         <v>79</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1114,10 +2128,7 @@
         <v>79</v>
       </c>
       <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1146,10 +2157,7 @@
         <v>79</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1178,10 +2186,7 @@
         <v>79</v>
       </c>
       <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1210,10 +2215,7 @@
         <v>79</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1242,10 +2244,7 @@
         <v>79</v>
       </c>
       <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
@@ -1274,10 +2273,7 @@
         <v>79</v>
       </c>
       <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -1306,10 +2302,7 @@
         <v>79</v>
       </c>
       <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -1338,10 +2331,7 @@
         <v>79</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -1370,10 +2360,7 @@
         <v>79</v>
       </c>
       <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -1402,10 +2389,7 @@
         <v>79</v>
       </c>
       <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -1434,10 +2418,7 @@
         <v>79</v>
       </c>
       <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -1466,10 +2447,7 @@
         <v>79</v>
       </c>
       <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -1498,10 +2476,7 @@
         <v>79</v>
       </c>
       <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -1530,10 +2505,7 @@
         <v>79</v>
       </c>
       <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" t="s">
         <v>62</v>
@@ -1565,10 +2537,7 @@
         <v>79</v>
       </c>
       <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" t="s">
         <v>63</v>
@@ -1603,10 +2572,7 @@
         <v>79</v>
       </c>
       <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
         <v>63</v>
@@ -1641,10 +2607,7 @@
         <v>79</v>
       </c>
       <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>82</v>
@@ -1682,10 +2645,7 @@
         <v>79</v>
       </c>
       <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
         <v>65</v>
@@ -1720,10 +2680,7 @@
         <v>79</v>
       </c>
       <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
         <v>66</v>
@@ -1758,10 +2715,7 @@
         <v>79</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31" t="s">
         <v>67</v>
@@ -1796,13 +2750,10 @@
         <v>79</v>
       </c>
       <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1828,13 +2779,10 @@
         <v>79</v>
       </c>
       <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -1860,13 +2808,10 @@
         <v>79</v>
       </c>
       <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -1892,13 +2837,6826 @@
         <v>79</v>
       </c>
       <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>3520</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37">
+        <v>3700</v>
+      </c>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>428</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38">
+        <v>3410</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39">
+        <v>3520</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>3700</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>3050</v>
+      </c>
+      <c r="I41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42">
+        <v>99700</v>
+      </c>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43">
+        <v>22560</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>428</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44">
+        <v>43600</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>428</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45">
+        <v>7800</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>428</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46">
+        <v>7800</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47">
+        <v>15750</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48">
+        <v>15750</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49">
+        <v>60800</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50">
+        <v>6900</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51">
+        <v>6900</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43727</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52">
+        <v>36300</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53">
+        <v>484000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>462000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55">
+        <v>1882400</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56">
+        <v>373900</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57">
+        <v>131000</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58">
+        <v>107000</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>195</v>
+      </c>
+      <c r="F59" t="s">
+        <v>429</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59">
+        <v>68500</v>
+      </c>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60">
+        <v>3268000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" t="s">
+        <v>429</v>
+      </c>
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61">
+        <v>299990</v>
+      </c>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62">
+        <v>289000</v>
+      </c>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43761</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63">
+        <v>218000</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43769</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64">
+        <v>143000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43769</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65">
+        <v>1200800</v>
+      </c>
+      <c r="I65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66">
+        <v>55400</v>
+      </c>
+      <c r="I66" t="s">
+        <v>79</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67">
+        <v>55400</v>
+      </c>
+      <c r="I67" t="s">
+        <v>79</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68">
+        <v>55400</v>
+      </c>
+      <c r="I68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69">
+        <v>133850</v>
+      </c>
+      <c r="I69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>429</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70">
+        <v>133850</v>
+      </c>
+      <c r="I70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H71">
+        <v>16900</v>
+      </c>
+      <c r="I71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72">
+        <v>16900</v>
+      </c>
+      <c r="I72" t="s">
+        <v>79</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43776</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73">
+        <v>16900</v>
+      </c>
+      <c r="I73" t="s">
+        <v>79</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43796</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" t="s">
+        <v>429</v>
+      </c>
+      <c r="G74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74">
+        <v>117500</v>
+      </c>
+      <c r="I74" t="s">
+        <v>79</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43853</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" t="s">
+        <v>428</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75">
+        <v>16500</v>
+      </c>
+      <c r="I75" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43866</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>428</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76">
+        <v>17600</v>
+      </c>
+      <c r="I76" t="s">
+        <v>79</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H77">
+        <v>484000</v>
+      </c>
+      <c r="I77" t="s">
+        <v>79</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" t="s">
+        <v>429</v>
+      </c>
+      <c r="G78" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78">
+        <v>59500</v>
+      </c>
+      <c r="I78" t="s">
+        <v>79</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
+        <v>429</v>
+      </c>
+      <c r="G79" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79">
+        <v>59500</v>
+      </c>
+      <c r="I79" t="s">
+        <v>79</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" t="s">
+        <v>429</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80">
+        <v>38500</v>
+      </c>
+      <c r="I80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>429</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H81">
+        <v>19900</v>
+      </c>
+      <c r="I81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>206</v>
+      </c>
+      <c r="F82" t="s">
+        <v>429</v>
+      </c>
+      <c r="G82" t="s">
+        <v>120</v>
+      </c>
+      <c r="H82">
+        <v>19900</v>
+      </c>
+      <c r="I82" t="s">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" t="s">
+        <v>428</v>
+      </c>
+      <c r="G83" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83">
+        <v>17160</v>
+      </c>
+      <c r="I83" t="s">
+        <v>79</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" t="s">
+        <v>429</v>
+      </c>
+      <c r="G84" t="s">
+        <v>122</v>
+      </c>
+      <c r="H84">
+        <v>5280</v>
+      </c>
+      <c r="I84" t="s">
+        <v>79</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85">
+        <v>2640</v>
+      </c>
+      <c r="I85" t="s">
+        <v>79</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" t="s">
+        <v>429</v>
+      </c>
+      <c r="G86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86">
+        <v>4500</v>
+      </c>
+      <c r="I86" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>211</v>
+      </c>
+      <c r="F87" t="s">
+        <v>429</v>
+      </c>
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87">
+        <v>6500</v>
+      </c>
+      <c r="I87" t="s">
+        <v>79</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>212</v>
+      </c>
+      <c r="F88" t="s">
+        <v>429</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88">
+        <v>37000</v>
+      </c>
+      <c r="I88" t="s">
+        <v>79</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43916</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>429</v>
+      </c>
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89">
+        <v>22620</v>
+      </c>
+      <c r="I89" t="s">
+        <v>79</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" t="s">
+        <v>429</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
+      <c r="H90">
+        <v>60000</v>
+      </c>
+      <c r="I90" t="s">
+        <v>79</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" t="s">
+        <v>429</v>
+      </c>
+      <c r="G91" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91">
+        <v>6200</v>
+      </c>
+      <c r="I91" t="s">
+        <v>79</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" t="s">
+        <v>429</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92">
+        <v>6200</v>
+      </c>
+      <c r="I92" t="s">
+        <v>79</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93">
+        <v>52000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>79</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" t="s">
+        <v>429</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
+      <c r="H94">
+        <v>22500</v>
+      </c>
+      <c r="I94" t="s">
+        <v>79</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95">
+        <v>11000</v>
+      </c>
+      <c r="I95" t="s">
+        <v>79</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43921</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" t="s">
+        <v>429</v>
+      </c>
+      <c r="G96" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96">
+        <v>484000</v>
+      </c>
+      <c r="I96" t="s">
+        <v>79</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43928</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" t="s">
+        <v>429</v>
+      </c>
+      <c r="G97" t="s">
+        <v>133</v>
+      </c>
+      <c r="H97">
+        <v>23500</v>
+      </c>
+      <c r="I97" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98">
+        <v>14900</v>
+      </c>
+      <c r="I98" t="s">
+        <v>79</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" t="s">
+        <v>428</v>
+      </c>
+      <c r="G99" t="s">
+        <v>135</v>
+      </c>
+      <c r="H99">
+        <v>25000</v>
+      </c>
+      <c r="I99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>224</v>
+      </c>
+      <c r="F100" t="s">
+        <v>429</v>
+      </c>
+      <c r="G100" t="s">
+        <v>136</v>
+      </c>
+      <c r="H100">
+        <v>112970</v>
+      </c>
+      <c r="I100" t="s">
+        <v>79</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>224</v>
+      </c>
+      <c r="F101" t="s">
+        <v>429</v>
+      </c>
+      <c r="G101" t="s">
+        <v>137</v>
+      </c>
+      <c r="H101">
+        <v>30000</v>
+      </c>
+      <c r="I101" t="s">
+        <v>79</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" t="s">
+        <v>429</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102">
+        <v>279000</v>
+      </c>
+      <c r="I102" t="s">
+        <v>79</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>224</v>
+      </c>
+      <c r="F103" t="s">
+        <v>429</v>
+      </c>
+      <c r="G103" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103">
+        <v>478000</v>
+      </c>
+      <c r="I103" t="s">
+        <v>79</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" t="s">
+        <v>429</v>
+      </c>
+      <c r="G104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H104">
+        <v>213930</v>
+      </c>
+      <c r="I104" t="s">
+        <v>79</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" t="s">
+        <v>429</v>
+      </c>
+      <c r="G105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105">
+        <v>72000</v>
+      </c>
+      <c r="I105" t="s">
+        <v>79</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" t="s">
+        <v>429</v>
+      </c>
+      <c r="G106" t="s">
+        <v>142</v>
+      </c>
+      <c r="H106">
+        <v>168080</v>
+      </c>
+      <c r="I106" t="s">
+        <v>79</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107" t="s">
+        <v>429</v>
+      </c>
+      <c r="G107" t="s">
+        <v>143</v>
+      </c>
+      <c r="H107">
+        <v>465600</v>
+      </c>
+      <c r="I107" t="s">
+        <v>79</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" t="s">
+        <v>429</v>
+      </c>
+      <c r="G108" t="s">
+        <v>144</v>
+      </c>
+      <c r="H108">
+        <v>195000</v>
+      </c>
+      <c r="I108" t="s">
+        <v>79</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" t="s">
+        <v>429</v>
+      </c>
+      <c r="G109" t="s">
+        <v>145</v>
+      </c>
+      <c r="H109">
+        <v>257320</v>
+      </c>
+      <c r="I109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>43987</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>224</v>
+      </c>
+      <c r="F110" t="s">
+        <v>429</v>
+      </c>
+      <c r="G110" t="s">
+        <v>146</v>
+      </c>
+      <c r="H110">
+        <v>159000</v>
+      </c>
+      <c r="I110" t="s">
+        <v>79</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" t="s">
+        <v>429</v>
+      </c>
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H111">
+        <v>9000</v>
+      </c>
+      <c r="I111" t="s">
+        <v>79</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" t="s">
+        <v>429</v>
+      </c>
+      <c r="G112" t="s">
+        <v>147</v>
+      </c>
+      <c r="H112">
+        <v>9000</v>
+      </c>
+      <c r="I112" t="s">
+        <v>79</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" t="s">
+        <v>429</v>
+      </c>
+      <c r="G113" t="s">
+        <v>148</v>
+      </c>
+      <c r="H113">
+        <v>5200</v>
+      </c>
+      <c r="I113" t="s">
+        <v>79</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" t="s">
+        <v>429</v>
+      </c>
+      <c r="G114" t="s">
+        <v>148</v>
+      </c>
+      <c r="H114">
+        <v>5200</v>
+      </c>
+      <c r="I114" t="s">
+        <v>79</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" t="s">
+        <v>429</v>
+      </c>
+      <c r="G115" t="s">
+        <v>149</v>
+      </c>
+      <c r="H115">
+        <v>6500</v>
+      </c>
+      <c r="I115" t="s">
+        <v>79</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44007</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
+        <v>429</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116">
+        <v>6500</v>
+      </c>
+      <c r="I116" t="s">
+        <v>79</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44012</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" t="s">
+        <v>429</v>
+      </c>
+      <c r="G117" t="s">
+        <v>150</v>
+      </c>
+      <c r="H117">
+        <v>506000</v>
+      </c>
+      <c r="I117" t="s">
+        <v>79</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
+        <v>429</v>
+      </c>
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
+      <c r="H118">
+        <v>61000</v>
+      </c>
+      <c r="I118" t="s">
+        <v>79</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
+        <v>429</v>
+      </c>
+      <c r="G119" t="s">
+        <v>152</v>
+      </c>
+      <c r="H119">
+        <v>99000</v>
+      </c>
+      <c r="I119" t="s">
+        <v>79</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
+        <v>429</v>
+      </c>
+      <c r="G120" t="s">
+        <v>153</v>
+      </c>
+      <c r="H120">
+        <v>8640</v>
+      </c>
+      <c r="I120" t="s">
+        <v>79</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44025</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
+        <v>429</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H121">
+        <v>27000</v>
+      </c>
+      <c r="I121" t="s">
+        <v>79</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44029</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="F122" t="s">
+        <v>429</v>
+      </c>
+      <c r="G122" t="s">
+        <v>155</v>
+      </c>
+      <c r="H122">
+        <v>22250</v>
+      </c>
+      <c r="I122" t="s">
+        <v>79</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44029</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
+        <v>429</v>
+      </c>
+      <c r="G123" t="s">
+        <v>155</v>
+      </c>
+      <c r="H123">
+        <v>22250</v>
+      </c>
+      <c r="I123" t="s">
+        <v>79</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>235</v>
+      </c>
+      <c r="F124" t="s">
+        <v>429</v>
+      </c>
+      <c r="G124" t="s">
+        <v>156</v>
+      </c>
+      <c r="H124">
+        <v>703500</v>
+      </c>
+      <c r="I124" t="s">
+        <v>79</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" t="s">
+        <v>429</v>
+      </c>
+      <c r="G125" t="s">
+        <v>157</v>
+      </c>
+      <c r="H125">
+        <v>255600</v>
+      </c>
+      <c r="I125" t="s">
+        <v>79</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>235</v>
+      </c>
+      <c r="F126" t="s">
+        <v>429</v>
+      </c>
+      <c r="G126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H126">
+        <v>147380</v>
+      </c>
+      <c r="I126" t="s">
+        <v>79</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>235</v>
+      </c>
+      <c r="F127" t="s">
+        <v>429</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
+      <c r="H127">
+        <v>114500</v>
+      </c>
+      <c r="I127" t="s">
+        <v>79</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>235</v>
+      </c>
+      <c r="F128" t="s">
+        <v>429</v>
+      </c>
+      <c r="G128" t="s">
+        <v>160</v>
+      </c>
+      <c r="H128">
+        <v>155000</v>
+      </c>
+      <c r="I128" t="s">
+        <v>79</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>235</v>
+      </c>
+      <c r="F129" t="s">
+        <v>429</v>
+      </c>
+      <c r="G129" t="s">
+        <v>161</v>
+      </c>
+      <c r="H129">
+        <v>981000</v>
+      </c>
+      <c r="I129" t="s">
+        <v>79</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" t="s">
+        <v>429</v>
+      </c>
+      <c r="G130" t="s">
+        <v>162</v>
+      </c>
+      <c r="H130">
+        <v>284000</v>
+      </c>
+      <c r="I130" t="s">
+        <v>79</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>235</v>
+      </c>
+      <c r="F131" t="s">
+        <v>429</v>
+      </c>
+      <c r="G131" t="s">
+        <v>163</v>
+      </c>
+      <c r="H131">
+        <v>70150</v>
+      </c>
+      <c r="I131" t="s">
+        <v>79</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>235</v>
+      </c>
+      <c r="F132" t="s">
+        <v>429</v>
+      </c>
+      <c r="G132" t="s">
+        <v>164</v>
+      </c>
+      <c r="H132">
+        <v>11300</v>
+      </c>
+      <c r="I132" t="s">
+        <v>79</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" t="s">
+        <v>429</v>
+      </c>
+      <c r="G133" t="s">
+        <v>165</v>
+      </c>
+      <c r="H133">
+        <v>314000</v>
+      </c>
+      <c r="I133" t="s">
+        <v>79</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44091</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" t="s">
+        <v>429</v>
+      </c>
+      <c r="G134" t="s">
+        <v>166</v>
+      </c>
+      <c r="H134">
+        <v>74580</v>
+      </c>
+      <c r="I134" t="s">
+        <v>79</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44092</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>237</v>
+      </c>
+      <c r="F135" t="s">
+        <v>428</v>
+      </c>
+      <c r="G135" t="s">
+        <v>167</v>
+      </c>
+      <c r="H135">
+        <v>19000</v>
+      </c>
+      <c r="I135" t="s">
+        <v>79</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44092</v>
+      </c>
+      <c r="D136" s="3">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" t="s">
+        <v>428</v>
+      </c>
+      <c r="G136" t="s">
+        <v>168</v>
+      </c>
+      <c r="H136">
+        <v>17800</v>
+      </c>
+      <c r="I136" t="s">
+        <v>79</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>239</v>
+      </c>
+      <c r="F137" t="s">
+        <v>429</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
+      <c r="H137">
+        <v>51960</v>
+      </c>
+      <c r="I137" t="s">
+        <v>79</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>239</v>
+      </c>
+      <c r="F138" t="s">
+        <v>429</v>
+      </c>
+      <c r="G138" t="s">
+        <v>170</v>
+      </c>
+      <c r="H138">
+        <v>2550</v>
+      </c>
+      <c r="I138" t="s">
+        <v>79</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" t="s">
+        <v>429</v>
+      </c>
+      <c r="G139" t="s">
+        <v>171</v>
+      </c>
+      <c r="H139">
+        <v>2010</v>
+      </c>
+      <c r="I139" t="s">
+        <v>79</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>239</v>
+      </c>
+      <c r="F140" t="s">
+        <v>429</v>
+      </c>
+      <c r="G140" t="s">
+        <v>172</v>
+      </c>
+      <c r="H140">
+        <v>25000</v>
+      </c>
+      <c r="I140" t="s">
+        <v>79</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>235</v>
+      </c>
+      <c r="F141" t="s">
+        <v>429</v>
+      </c>
+      <c r="G141" t="s">
+        <v>173</v>
+      </c>
+      <c r="H141">
+        <v>72000</v>
+      </c>
+      <c r="I141" t="s">
+        <v>79</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44145</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" t="s">
+        <v>429</v>
+      </c>
+      <c r="G142" t="s">
+        <v>174</v>
+      </c>
+      <c r="H142">
+        <v>18800</v>
+      </c>
+      <c r="I142" t="s">
+        <v>79</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44145</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" t="s">
+        <v>429</v>
+      </c>
+      <c r="G143" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143">
+        <v>26000</v>
+      </c>
+      <c r="I143" t="s">
+        <v>79</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>312</v>
+      </c>
+      <c r="F144" t="s">
+        <v>77</v>
+      </c>
+      <c r="G144" t="s">
+        <v>51</v>
+      </c>
+      <c r="H144">
+        <v>1983220</v>
+      </c>
+      <c r="I144" t="s">
+        <v>79</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D145" s="3">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F145" t="s">
+        <v>77</v>
+      </c>
+      <c r="G145" t="s">
+        <v>51</v>
+      </c>
+      <c r="H145">
+        <v>1983220</v>
+      </c>
+      <c r="I145" t="s">
+        <v>79</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>314</v>
+      </c>
+      <c r="F146" t="s">
+        <v>77</v>
+      </c>
+      <c r="G146" t="s">
+        <v>240</v>
+      </c>
+      <c r="H146">
+        <v>209000</v>
+      </c>
+      <c r="I146" t="s">
+        <v>79</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D147" s="3">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>315</v>
+      </c>
+      <c r="F147" t="s">
+        <v>77</v>
+      </c>
+      <c r="G147" t="s">
+        <v>240</v>
+      </c>
+      <c r="H147">
+        <v>209000</v>
+      </c>
+      <c r="I147" t="s">
+        <v>79</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43616</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>316</v>
+      </c>
+      <c r="F148" t="s">
+        <v>77</v>
+      </c>
+      <c r="G148" t="s">
+        <v>241</v>
+      </c>
+      <c r="H148">
+        <v>139000</v>
+      </c>
+      <c r="I148" t="s">
+        <v>79</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>317</v>
+      </c>
+      <c r="F149" t="s">
+        <v>429</v>
+      </c>
+      <c r="G149" t="s">
+        <v>242</v>
+      </c>
+      <c r="H149">
+        <v>6325000</v>
+      </c>
+      <c r="I149" t="s">
+        <v>79</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>318</v>
+      </c>
+      <c r="F150" t="s">
+        <v>429</v>
+      </c>
+      <c r="G150" t="s">
+        <v>243</v>
+      </c>
+      <c r="H150">
+        <v>6325000</v>
+      </c>
+      <c r="I150" t="s">
+        <v>79</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>319</v>
+      </c>
+      <c r="F151" t="s">
+        <v>429</v>
+      </c>
+      <c r="G151" t="s">
+        <v>244</v>
+      </c>
+      <c r="H151">
+        <v>3696000</v>
+      </c>
+      <c r="I151" t="s">
+        <v>79</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>320</v>
+      </c>
+      <c r="F152" t="s">
+        <v>429</v>
+      </c>
+      <c r="G152" t="s">
+        <v>245</v>
+      </c>
+      <c r="H152">
+        <v>2552000</v>
+      </c>
+      <c r="I152" t="s">
+        <v>79</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>321</v>
+      </c>
+      <c r="F153" t="s">
+        <v>429</v>
+      </c>
+      <c r="G153" t="s">
+        <v>245</v>
+      </c>
+      <c r="H153">
+        <v>4202000</v>
+      </c>
+      <c r="I153" t="s">
+        <v>79</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <v>43675</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>322</v>
+      </c>
+      <c r="F154" t="s">
+        <v>429</v>
+      </c>
+      <c r="G154" t="s">
+        <v>246</v>
+      </c>
+      <c r="H154">
+        <v>14762000</v>
+      </c>
+      <c r="I154" t="s">
+        <v>79</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>323</v>
+      </c>
+      <c r="F155" t="s">
+        <v>429</v>
+      </c>
+      <c r="G155" t="s">
+        <v>247</v>
+      </c>
+      <c r="H155">
+        <v>74580</v>
+      </c>
+      <c r="I155" t="s">
+        <v>79</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>324</v>
+      </c>
+      <c r="F156" t="s">
+        <v>429</v>
+      </c>
+      <c r="G156" t="s">
+        <v>247</v>
+      </c>
+      <c r="H156">
+        <v>74580</v>
+      </c>
+      <c r="I156" t="s">
+        <v>79</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43696</v>
+      </c>
+      <c r="D157" s="3">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>325</v>
+      </c>
+      <c r="F157" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157" t="s">
+        <v>248</v>
+      </c>
+      <c r="H157">
+        <v>750000</v>
+      </c>
+      <c r="I157" t="s">
+        <v>79</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43696</v>
+      </c>
+      <c r="D158" s="3">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>326</v>
+      </c>
+      <c r="F158" t="s">
+        <v>77</v>
+      </c>
+      <c r="G158" t="s">
+        <v>248</v>
+      </c>
+      <c r="H158">
+        <v>750000</v>
+      </c>
+      <c r="I158" t="s">
+        <v>79</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
+        <v>43724</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>327</v>
+      </c>
+      <c r="F159" t="s">
+        <v>77</v>
+      </c>
+      <c r="G159" t="s">
+        <v>51</v>
+      </c>
+      <c r="H159">
+        <v>1651570</v>
+      </c>
+      <c r="I159" t="s">
+        <v>79</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43724</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>328</v>
+      </c>
+      <c r="F160" t="s">
+        <v>77</v>
+      </c>
+      <c r="G160" t="s">
+        <v>51</v>
+      </c>
+      <c r="H160">
+        <v>1769570</v>
+      </c>
+      <c r="I160" t="s">
+        <v>79</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D161" s="3">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>329</v>
+      </c>
+      <c r="F161" t="s">
+        <v>428</v>
+      </c>
+      <c r="G161" t="s">
+        <v>249</v>
+      </c>
+      <c r="H161">
+        <v>420000</v>
+      </c>
+      <c r="I161" t="s">
+        <v>79</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D162" s="3">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>330</v>
+      </c>
+      <c r="F162" t="s">
+        <v>428</v>
+      </c>
+      <c r="G162" t="s">
+        <v>250</v>
+      </c>
+      <c r="H162">
+        <v>636000</v>
+      </c>
+      <c r="I162" t="s">
+        <v>79</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D163" s="3">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>331</v>
+      </c>
+      <c r="F163" t="s">
+        <v>428</v>
+      </c>
+      <c r="G163" t="s">
+        <v>250</v>
+      </c>
+      <c r="H163">
+        <v>636000</v>
+      </c>
+      <c r="I163" t="s">
+        <v>79</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D164" s="3">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>332</v>
+      </c>
+      <c r="F164" t="s">
+        <v>428</v>
+      </c>
+      <c r="G164" t="s">
+        <v>251</v>
+      </c>
+      <c r="H164">
+        <v>129000</v>
+      </c>
+      <c r="I164" t="s">
+        <v>79</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D165" s="3">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>332</v>
+      </c>
+      <c r="F165" t="s">
+        <v>428</v>
+      </c>
+      <c r="G165" t="s">
+        <v>252</v>
+      </c>
+      <c r="H165">
+        <v>7000</v>
+      </c>
+      <c r="I165" t="s">
+        <v>79</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
+        <v>43734</v>
+      </c>
+      <c r="D166" s="3">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>332</v>
+      </c>
+      <c r="F166" t="s">
+        <v>428</v>
+      </c>
+      <c r="G166" t="s">
+        <v>253</v>
+      </c>
+      <c r="H166">
+        <v>4000</v>
+      </c>
+      <c r="I166" t="s">
+        <v>79</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43735</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>333</v>
+      </c>
+      <c r="F167" t="s">
+        <v>429</v>
+      </c>
+      <c r="G167" t="s">
+        <v>254</v>
+      </c>
+      <c r="H167">
+        <v>1210000</v>
+      </c>
+      <c r="I167" t="s">
+        <v>79</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43735</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>333</v>
+      </c>
+      <c r="F168" t="s">
+        <v>429</v>
+      </c>
+      <c r="G168" t="s">
+        <v>255</v>
+      </c>
+      <c r="H168">
+        <v>38500</v>
+      </c>
+      <c r="I168" t="s">
+        <v>79</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43766</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" t="s">
+        <v>256</v>
+      </c>
+      <c r="H169">
+        <v>66900</v>
+      </c>
+      <c r="I169" t="s">
+        <v>79</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43766</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>335</v>
+      </c>
+      <c r="F170" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" t="s">
+        <v>256</v>
+      </c>
+      <c r="H170">
+        <v>66900</v>
+      </c>
+      <c r="I170" t="s">
+        <v>79</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
+        <v>43783</v>
+      </c>
+      <c r="D171" s="3">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
+        <v>77</v>
+      </c>
+      <c r="G171" t="s">
+        <v>257</v>
+      </c>
+      <c r="H171">
+        <v>1170000</v>
+      </c>
+      <c r="I171" t="s">
+        <v>79</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
+        <v>43783</v>
+      </c>
+      <c r="D172" s="3">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>337</v>
+      </c>
+      <c r="F172" t="s">
+        <v>77</v>
+      </c>
+      <c r="G172" t="s">
+        <v>258</v>
+      </c>
+      <c r="H172">
+        <v>100000</v>
+      </c>
+      <c r="I172" t="s">
+        <v>79</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2">
+        <v>43783</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>198</v>
+      </c>
+      <c r="F173" t="s">
+        <v>77</v>
+      </c>
+      <c r="G173" t="s">
+        <v>259</v>
+      </c>
+      <c r="H173">
+        <v>870000</v>
+      </c>
+      <c r="I173" t="s">
+        <v>79</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2">
+        <v>43783</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
+        <v>77</v>
+      </c>
+      <c r="G174" t="s">
+        <v>260</v>
+      </c>
+      <c r="H174">
+        <v>100000</v>
+      </c>
+      <c r="I174" t="s">
+        <v>79</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>339</v>
+      </c>
+      <c r="F175" t="s">
+        <v>77</v>
+      </c>
+      <c r="G175" t="s">
+        <v>47</v>
+      </c>
+      <c r="H175">
+        <v>9900</v>
+      </c>
+      <c r="I175" t="s">
+        <v>79</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
+        <v>77</v>
+      </c>
+      <c r="G176" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176">
+        <v>5900</v>
+      </c>
+      <c r="I176" t="s">
+        <v>79</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>341</v>
+      </c>
+      <c r="F177" t="s">
+        <v>77</v>
+      </c>
+      <c r="G177" t="s">
+        <v>48</v>
+      </c>
+      <c r="H177">
+        <v>5900</v>
+      </c>
+      <c r="I177" t="s">
+        <v>79</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
+        <v>77</v>
+      </c>
+      <c r="G178" t="s">
+        <v>48</v>
+      </c>
+      <c r="H178">
+        <v>5900</v>
+      </c>
+      <c r="I178" t="s">
+        <v>79</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>343</v>
+      </c>
+      <c r="F179" t="s">
+        <v>77</v>
+      </c>
+      <c r="G179" t="s">
+        <v>48</v>
+      </c>
+      <c r="H179">
+        <v>5900</v>
+      </c>
+      <c r="I179" t="s">
+        <v>79</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
+        <v>77</v>
+      </c>
+      <c r="G180" t="s">
+        <v>48</v>
+      </c>
+      <c r="H180">
+        <v>5900</v>
+      </c>
+      <c r="I180" t="s">
+        <v>79</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>345</v>
+      </c>
+      <c r="F181" t="s">
+        <v>77</v>
+      </c>
+      <c r="G181" t="s">
+        <v>48</v>
+      </c>
+      <c r="H181">
+        <v>5900</v>
+      </c>
+      <c r="I181" t="s">
+        <v>79</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s">
+        <v>48</v>
+      </c>
+      <c r="H182">
+        <v>5900</v>
+      </c>
+      <c r="I182" t="s">
+        <v>79</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>347</v>
+      </c>
+      <c r="F183" t="s">
+        <v>77</v>
+      </c>
+      <c r="G183" t="s">
+        <v>48</v>
+      </c>
+      <c r="H183">
+        <v>5900</v>
+      </c>
+      <c r="I183" t="s">
+        <v>79</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
+        <v>77</v>
+      </c>
+      <c r="G184" t="s">
+        <v>261</v>
+      </c>
+      <c r="H184">
+        <v>15000</v>
+      </c>
+      <c r="I184" t="s">
+        <v>79</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>349</v>
+      </c>
+      <c r="F185" t="s">
+        <v>77</v>
+      </c>
+      <c r="G185" t="s">
+        <v>261</v>
+      </c>
+      <c r="H185">
+        <v>15000</v>
+      </c>
+      <c r="I185" t="s">
+        <v>79</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D186" s="3">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" t="s">
+        <v>77</v>
+      </c>
+      <c r="G186" t="s">
+        <v>262</v>
+      </c>
+      <c r="H186">
+        <v>15000</v>
+      </c>
+      <c r="I186" t="s">
+        <v>79</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D187" s="3">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>351</v>
+      </c>
+      <c r="F187" t="s">
+        <v>77</v>
+      </c>
+      <c r="G187" t="s">
+        <v>262</v>
+      </c>
+      <c r="H187">
+        <v>15000</v>
+      </c>
+      <c r="I187" t="s">
+        <v>79</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D188" s="3">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" t="s">
+        <v>77</v>
+      </c>
+      <c r="G188" t="s">
+        <v>262</v>
+      </c>
+      <c r="H188">
+        <v>15000</v>
+      </c>
+      <c r="I188" t="s">
+        <v>79</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s">
+        <v>353</v>
+      </c>
+      <c r="F189" t="s">
+        <v>77</v>
+      </c>
+      <c r="G189" t="s">
+        <v>256</v>
+      </c>
+      <c r="H189">
+        <v>66900</v>
+      </c>
+      <c r="I189" t="s">
+        <v>79</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2">
+        <v>43798</v>
+      </c>
+      <c r="D190" s="3">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>354</v>
+      </c>
+      <c r="F190" t="s">
+        <v>430</v>
+      </c>
+      <c r="G190" t="s">
+        <v>263</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>79</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2">
+        <v>43798</v>
+      </c>
+      <c r="D191" s="3">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>355</v>
+      </c>
+      <c r="F191" t="s">
+        <v>430</v>
+      </c>
+      <c r="G191" t="s">
+        <v>263</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>79</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2">
+        <v>43798</v>
+      </c>
+      <c r="D192" s="3">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>356</v>
+      </c>
+      <c r="F192" t="s">
+        <v>430</v>
+      </c>
+      <c r="G192" t="s">
+        <v>263</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>79</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>357</v>
+      </c>
+      <c r="F193" t="s">
+        <v>429</v>
+      </c>
+      <c r="G193" t="s">
+        <v>264</v>
+      </c>
+      <c r="H193">
+        <v>42900</v>
+      </c>
+      <c r="I193" t="s">
+        <v>79</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D194" s="3">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>357</v>
+      </c>
+      <c r="F194" t="s">
+        <v>429</v>
+      </c>
+      <c r="G194" t="s">
+        <v>265</v>
+      </c>
+      <c r="H194">
+        <v>5000</v>
+      </c>
+      <c r="I194" t="s">
+        <v>79</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>358</v>
+      </c>
+      <c r="F195" t="s">
+        <v>429</v>
+      </c>
+      <c r="G195" t="s">
+        <v>264</v>
+      </c>
+      <c r="H195">
+        <v>42900</v>
+      </c>
+      <c r="I195" t="s">
+        <v>79</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D196" s="3">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>358</v>
+      </c>
+      <c r="F196" t="s">
+        <v>429</v>
+      </c>
+      <c r="G196" t="s">
+        <v>265</v>
+      </c>
+      <c r="H196">
+        <v>5000</v>
+      </c>
+      <c r="I196" t="s">
+        <v>79</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>359</v>
+      </c>
+      <c r="F197" t="s">
+        <v>429</v>
+      </c>
+      <c r="G197" t="s">
+        <v>242</v>
+      </c>
+      <c r="H197">
+        <v>6325000</v>
+      </c>
+      <c r="I197" t="s">
+        <v>79</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>360</v>
+      </c>
+      <c r="F198" t="s">
+        <v>429</v>
+      </c>
+      <c r="G198" t="s">
+        <v>243</v>
+      </c>
+      <c r="H198">
+        <v>6325000</v>
+      </c>
+      <c r="I198" t="s">
+        <v>79</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>361</v>
+      </c>
+      <c r="F199" t="s">
+        <v>429</v>
+      </c>
+      <c r="G199" t="s">
+        <v>244</v>
+      </c>
+      <c r="H199">
+        <v>3696000</v>
+      </c>
+      <c r="I199" t="s">
+        <v>79</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>362</v>
+      </c>
+      <c r="F200" t="s">
+        <v>429</v>
+      </c>
+      <c r="G200" t="s">
+        <v>245</v>
+      </c>
+      <c r="H200">
+        <v>2552000</v>
+      </c>
+      <c r="I200" t="s">
+        <v>79</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>363</v>
+      </c>
+      <c r="F201" t="s">
+        <v>429</v>
+      </c>
+      <c r="G201" t="s">
+        <v>245</v>
+      </c>
+      <c r="H201">
+        <v>4202000</v>
+      </c>
+      <c r="I201" t="s">
+        <v>79</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>364</v>
+      </c>
+      <c r="F202" t="s">
+        <v>429</v>
+      </c>
+      <c r="G202" t="s">
+        <v>246</v>
+      </c>
+      <c r="H202">
+        <v>14762000</v>
+      </c>
+      <c r="I202" t="s">
+        <v>79</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43823</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>365</v>
+      </c>
+      <c r="F203" t="s">
+        <v>77</v>
+      </c>
+      <c r="G203" t="s">
+        <v>266</v>
+      </c>
+      <c r="H203">
+        <v>199500</v>
+      </c>
+      <c r="I203" t="s">
+        <v>79</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2">
+        <v>43864</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>366</v>
+      </c>
+      <c r="F204" t="s">
+        <v>429</v>
+      </c>
+      <c r="G204" t="s">
+        <v>267</v>
+      </c>
+      <c r="H204">
+        <v>199000</v>
+      </c>
+      <c r="I204" t="s">
+        <v>79</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s">
+        <v>367</v>
+      </c>
+      <c r="F205" t="s">
+        <v>77</v>
+      </c>
+      <c r="G205" t="s">
+        <v>268</v>
+      </c>
+      <c r="H205">
+        <v>25000</v>
+      </c>
+      <c r="I205" t="s">
+        <v>79</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2">
+        <v>43899</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>367</v>
+      </c>
+      <c r="F206" t="s">
+        <v>77</v>
+      </c>
+      <c r="G206" t="s">
+        <v>268</v>
+      </c>
+      <c r="H206">
+        <v>25000</v>
+      </c>
+      <c r="I206" t="s">
+        <v>79</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>368</v>
+      </c>
+      <c r="F207" t="s">
+        <v>77</v>
+      </c>
+      <c r="G207" t="s">
+        <v>269</v>
+      </c>
+      <c r="H207">
+        <v>229000</v>
+      </c>
+      <c r="I207" t="s">
+        <v>79</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>369</v>
+      </c>
+      <c r="F208" t="s">
+        <v>77</v>
+      </c>
+      <c r="G208" t="s">
+        <v>269</v>
+      </c>
+      <c r="H208">
+        <v>229000</v>
+      </c>
+      <c r="I208" t="s">
+        <v>79</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>370</v>
+      </c>
+      <c r="F209" t="s">
+        <v>77</v>
+      </c>
+      <c r="G209" t="s">
+        <v>269</v>
+      </c>
+      <c r="H209">
+        <v>229000</v>
+      </c>
+      <c r="I209" t="s">
+        <v>79</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>371</v>
+      </c>
+      <c r="F210" t="s">
+        <v>429</v>
+      </c>
+      <c r="G210" t="s">
+        <v>270</v>
+      </c>
+      <c r="H210">
+        <v>48900</v>
+      </c>
+      <c r="I210" t="s">
+        <v>79</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
+        <v>43900</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>372</v>
+      </c>
+      <c r="F211" t="s">
+        <v>429</v>
+      </c>
+      <c r="G211" t="s">
+        <v>270</v>
+      </c>
+      <c r="H211">
+        <v>48900</v>
+      </c>
+      <c r="I211" t="s">
+        <v>79</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>373</v>
+      </c>
+      <c r="F212" t="s">
+        <v>429</v>
+      </c>
+      <c r="G212" t="s">
+        <v>270</v>
+      </c>
+      <c r="H212">
+        <v>48900</v>
+      </c>
+      <c r="I212" t="s">
+        <v>79</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>374</v>
+      </c>
+      <c r="F213" t="s">
+        <v>429</v>
+      </c>
+      <c r="G213" t="s">
+        <v>271</v>
+      </c>
+      <c r="H213">
+        <v>1689000</v>
+      </c>
+      <c r="I213" t="s">
+        <v>79</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>375</v>
+      </c>
+      <c r="F214" t="s">
+        <v>429</v>
+      </c>
+      <c r="G214" t="s">
+        <v>271</v>
+      </c>
+      <c r="H214">
+        <v>1689000</v>
+      </c>
+      <c r="I214" t="s">
+        <v>79</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D215" s="3">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>376</v>
+      </c>
+      <c r="F215" t="s">
+        <v>429</v>
+      </c>
+      <c r="G215" t="s">
+        <v>272</v>
+      </c>
+      <c r="H215">
+        <v>427000</v>
+      </c>
+      <c r="I215" t="s">
+        <v>79</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>377</v>
+      </c>
+      <c r="F216" t="s">
+        <v>429</v>
+      </c>
+      <c r="G216" t="s">
+        <v>273</v>
+      </c>
+      <c r="H216">
+        <v>229000</v>
+      </c>
+      <c r="I216" t="s">
+        <v>79</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2">
+        <v>43909</v>
+      </c>
+      <c r="D217" s="3">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>378</v>
+      </c>
+      <c r="F217" t="s">
+        <v>429</v>
+      </c>
+      <c r="G217" t="s">
+        <v>274</v>
+      </c>
+      <c r="H217">
+        <v>29900</v>
+      </c>
+      <c r="I217" t="s">
+        <v>79</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>43909</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>379</v>
+      </c>
+      <c r="F218" t="s">
+        <v>77</v>
+      </c>
+      <c r="G218" t="s">
+        <v>275</v>
+      </c>
+      <c r="H218">
+        <v>25000</v>
+      </c>
+      <c r="I218" t="s">
+        <v>79</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
+        <v>43909</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>380</v>
+      </c>
+      <c r="F219" t="s">
+        <v>77</v>
+      </c>
+      <c r="G219" t="s">
+        <v>276</v>
+      </c>
+      <c r="H219">
+        <v>59900</v>
+      </c>
+      <c r="I219" t="s">
+        <v>79</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>43935</v>
+      </c>
+      <c r="D220" s="3">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>381</v>
+      </c>
+      <c r="F220" t="s">
+        <v>429</v>
+      </c>
+      <c r="G220" t="s">
+        <v>277</v>
+      </c>
+      <c r="H220">
+        <v>293439</v>
+      </c>
+      <c r="I220" t="s">
+        <v>79</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2">
+        <v>43937</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>382</v>
+      </c>
+      <c r="F221" t="s">
+        <v>429</v>
+      </c>
+      <c r="G221" t="s">
+        <v>278</v>
+      </c>
+      <c r="H221">
+        <v>2053187.5</v>
+      </c>
+      <c r="I221" t="s">
+        <v>79</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2">
+        <v>43937</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>383</v>
+      </c>
+      <c r="F222" t="s">
+        <v>429</v>
+      </c>
+      <c r="G222" t="s">
+        <v>279</v>
+      </c>
+      <c r="H222">
+        <v>2053187.5</v>
+      </c>
+      <c r="I222" t="s">
+        <v>79</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2">
+        <v>43944</v>
+      </c>
+      <c r="D223" s="3">
+        <v>3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>384</v>
+      </c>
+      <c r="F223" t="s">
+        <v>77</v>
+      </c>
+      <c r="G223" t="s">
+        <v>280</v>
+      </c>
+      <c r="H223">
+        <v>1650000</v>
+      </c>
+      <c r="I223" t="s">
+        <v>79</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44012</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>385</v>
+      </c>
+      <c r="F224" t="s">
+        <v>429</v>
+      </c>
+      <c r="G224" t="s">
+        <v>281</v>
+      </c>
+      <c r="H224">
+        <v>7009200</v>
+      </c>
+      <c r="I224" t="s">
+        <v>79</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>386</v>
+      </c>
+      <c r="F225" t="s">
+        <v>429</v>
+      </c>
+      <c r="G225" t="s">
+        <v>282</v>
+      </c>
+      <c r="H225">
+        <v>1049000</v>
+      </c>
+      <c r="I225" t="s">
+        <v>79</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2</v>
+      </c>
+      <c r="E226" t="s">
+        <v>385</v>
+      </c>
+      <c r="F226" t="s">
+        <v>429</v>
+      </c>
+      <c r="G226" t="s">
+        <v>283</v>
+      </c>
+      <c r="H226">
+        <v>420000</v>
+      </c>
+      <c r="I226" t="s">
+        <v>79</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2</v>
+      </c>
+      <c r="E227" t="s">
+        <v>385</v>
+      </c>
+      <c r="F227" t="s">
+        <v>429</v>
+      </c>
+      <c r="G227" t="s">
+        <v>284</v>
+      </c>
+      <c r="H227">
+        <v>2035000</v>
+      </c>
+      <c r="I227" t="s">
+        <v>79</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" s="2">
+        <v>44022</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>387</v>
+      </c>
+      <c r="F228" t="s">
+        <v>429</v>
+      </c>
+      <c r="G228" t="s">
+        <v>285</v>
+      </c>
+      <c r="H228">
+        <v>99000</v>
+      </c>
+      <c r="I228" t="s">
+        <v>79</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44083</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>388</v>
+      </c>
+      <c r="F229" t="s">
+        <v>429</v>
+      </c>
+      <c r="G229" t="s">
+        <v>286</v>
+      </c>
+      <c r="H229">
+        <v>540000</v>
+      </c>
+      <c r="I229" t="s">
+        <v>79</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44097</v>
+      </c>
+      <c r="D230" s="3">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>389</v>
+      </c>
+      <c r="F230" t="s">
+        <v>77</v>
+      </c>
+      <c r="G230" t="s">
+        <v>287</v>
+      </c>
+      <c r="H230">
+        <v>65000</v>
+      </c>
+      <c r="I230" t="s">
+        <v>79</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44097</v>
+      </c>
+      <c r="D231" s="3">
+        <v>3</v>
+      </c>
+      <c r="E231" t="s">
+        <v>390</v>
+      </c>
+      <c r="F231" t="s">
+        <v>77</v>
+      </c>
+      <c r="G231" t="s">
+        <v>287</v>
+      </c>
+      <c r="H231">
+        <v>65000</v>
+      </c>
+      <c r="I231" t="s">
+        <v>79</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44097</v>
+      </c>
+      <c r="D232" s="3">
+        <v>3</v>
+      </c>
+      <c r="E232" t="s">
+        <v>391</v>
+      </c>
+      <c r="F232" t="s">
+        <v>77</v>
+      </c>
+      <c r="G232" t="s">
+        <v>288</v>
+      </c>
+      <c r="H232">
+        <v>40000</v>
+      </c>
+      <c r="I232" t="s">
+        <v>79</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44113</v>
+      </c>
+      <c r="D233" s="3">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>392</v>
+      </c>
+      <c r="F233" t="s">
+        <v>77</v>
+      </c>
+      <c r="G233" t="s">
+        <v>289</v>
+      </c>
+      <c r="H233">
+        <v>31900</v>
+      </c>
+      <c r="I233" t="s">
+        <v>79</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44113</v>
+      </c>
+      <c r="D234" s="3">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>393</v>
+      </c>
+      <c r="F234" t="s">
+        <v>77</v>
+      </c>
+      <c r="G234" t="s">
+        <v>290</v>
+      </c>
+      <c r="H234">
+        <v>239000</v>
+      </c>
+      <c r="I234" t="s">
+        <v>79</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44113</v>
+      </c>
+      <c r="D235" s="3">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>394</v>
+      </c>
+      <c r="F235" t="s">
+        <v>77</v>
+      </c>
+      <c r="G235" t="s">
+        <v>291</v>
+      </c>
+      <c r="H235">
+        <v>1050</v>
+      </c>
+      <c r="I235" t="s">
+        <v>79</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>395</v>
+      </c>
+      <c r="F236" t="s">
+        <v>77</v>
+      </c>
+      <c r="G236" t="s">
+        <v>292</v>
+      </c>
+      <c r="H236">
+        <v>26000</v>
+      </c>
+      <c r="I236" t="s">
+        <v>79</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>396</v>
+      </c>
+      <c r="F237" t="s">
+        <v>77</v>
+      </c>
+      <c r="G237" t="s">
+        <v>293</v>
+      </c>
+      <c r="H237">
+        <v>22000</v>
+      </c>
+      <c r="I237" t="s">
+        <v>79</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>397</v>
+      </c>
+      <c r="F238" t="s">
+        <v>77</v>
+      </c>
+      <c r="G238" t="s">
+        <v>294</v>
+      </c>
+      <c r="H238">
+        <v>32000</v>
+      </c>
+      <c r="I238" t="s">
+        <v>79</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>398</v>
+      </c>
+      <c r="F239" t="s">
+        <v>77</v>
+      </c>
+      <c r="G239" t="s">
+        <v>295</v>
+      </c>
+      <c r="H239">
+        <v>33000</v>
+      </c>
+      <c r="I239" t="s">
+        <v>79</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>399</v>
+      </c>
+      <c r="F240" t="s">
+        <v>77</v>
+      </c>
+      <c r="G240" t="s">
+        <v>296</v>
+      </c>
+      <c r="H240">
+        <v>42000</v>
+      </c>
+      <c r="I240" t="s">
+        <v>79</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D241" s="3">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>400</v>
+      </c>
+      <c r="F241" t="s">
+        <v>428</v>
+      </c>
+      <c r="G241" t="s">
+        <v>297</v>
+      </c>
+      <c r="H241">
+        <v>38500</v>
+      </c>
+      <c r="I241" t="s">
+        <v>79</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D242" s="3">
+        <v>3</v>
+      </c>
+      <c r="E242" t="s">
+        <v>401</v>
+      </c>
+      <c r="F242" t="s">
+        <v>428</v>
+      </c>
+      <c r="G242" t="s">
+        <v>298</v>
+      </c>
+      <c r="H242">
+        <v>16500</v>
+      </c>
+      <c r="I242" t="s">
+        <v>79</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D243" s="3">
+        <v>3</v>
+      </c>
+      <c r="E243" t="s">
+        <v>402</v>
+      </c>
+      <c r="F243" t="s">
+        <v>428</v>
+      </c>
+      <c r="G243" t="s">
+        <v>299</v>
+      </c>
+      <c r="H243">
+        <v>95700</v>
+      </c>
+      <c r="I243" t="s">
+        <v>79</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D244" s="3">
+        <v>3</v>
+      </c>
+      <c r="E244" t="s">
+        <v>403</v>
+      </c>
+      <c r="F244" t="s">
+        <v>428</v>
+      </c>
+      <c r="G244" t="s">
+        <v>300</v>
+      </c>
+      <c r="H244">
+        <v>40700</v>
+      </c>
+      <c r="I244" t="s">
+        <v>79</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D245" s="3">
+        <v>3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>404</v>
+      </c>
+      <c r="F245" t="s">
+        <v>428</v>
+      </c>
+      <c r="G245" t="s">
+        <v>301</v>
+      </c>
+      <c r="H245">
+        <v>1100</v>
+      </c>
+      <c r="I245" t="s">
+        <v>79</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D246" s="3">
+        <v>3</v>
+      </c>
+      <c r="E246" t="s">
+        <v>405</v>
+      </c>
+      <c r="F246" t="s">
+        <v>428</v>
+      </c>
+      <c r="G246" t="s">
+        <v>301</v>
+      </c>
+      <c r="H246">
+        <v>1100</v>
+      </c>
+      <c r="I246" t="s">
+        <v>79</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44126</v>
+      </c>
+      <c r="D247" s="3">
+        <v>3</v>
+      </c>
+      <c r="E247" t="s">
+        <v>406</v>
+      </c>
+      <c r="F247" t="s">
+        <v>428</v>
+      </c>
+      <c r="G247" t="s">
+        <v>116</v>
+      </c>
+      <c r="H247">
+        <v>13200</v>
+      </c>
+      <c r="I247" t="s">
+        <v>79</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2">
+        <v>44134</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>407</v>
+      </c>
+      <c r="F248" t="s">
+        <v>77</v>
+      </c>
+      <c r="G248" t="s">
+        <v>287</v>
+      </c>
+      <c r="H248">
+        <v>66900</v>
+      </c>
+      <c r="I248" t="s">
+        <v>79</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44134</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>408</v>
+      </c>
+      <c r="F249" t="s">
+        <v>77</v>
+      </c>
+      <c r="G249" t="s">
+        <v>287</v>
+      </c>
+      <c r="H249">
+        <v>66900</v>
+      </c>
+      <c r="I249" t="s">
+        <v>79</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2">
+        <v>44134</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2</v>
+      </c>
+      <c r="E250" t="s">
+        <v>409</v>
+      </c>
+      <c r="F250" t="s">
+        <v>77</v>
+      </c>
+      <c r="G250" t="s">
+        <v>287</v>
+      </c>
+      <c r="H250">
+        <v>66900</v>
+      </c>
+      <c r="I250" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2">
+        <v>44134</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2</v>
+      </c>
+      <c r="E251" t="s">
+        <v>410</v>
+      </c>
+      <c r="F251" t="s">
+        <v>77</v>
+      </c>
+      <c r="G251" t="s">
+        <v>287</v>
+      </c>
+      <c r="H251">
+        <v>66900</v>
+      </c>
+      <c r="I251" t="s">
+        <v>79</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2">
+        <v>44134</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>411</v>
+      </c>
+      <c r="F252" t="s">
+        <v>77</v>
+      </c>
+      <c r="G252" t="s">
+        <v>287</v>
+      </c>
+      <c r="H252">
+        <v>66900</v>
+      </c>
+      <c r="I252" t="s">
+        <v>79</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s">
+        <v>412</v>
+      </c>
+      <c r="F253" t="s">
+        <v>429</v>
+      </c>
+      <c r="G253" t="s">
+        <v>302</v>
+      </c>
+      <c r="H253">
+        <v>1114940</v>
+      </c>
+      <c r="I253" t="s">
+        <v>79</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s">
+        <v>413</v>
+      </c>
+      <c r="F254" t="s">
+        <v>429</v>
+      </c>
+      <c r="G254" t="s">
+        <v>303</v>
+      </c>
+      <c r="H254">
+        <v>28900</v>
+      </c>
+      <c r="I254" t="s">
+        <v>79</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2</v>
+      </c>
+      <c r="E255" t="s">
+        <v>414</v>
+      </c>
+      <c r="F255" t="s">
+        <v>429</v>
+      </c>
+      <c r="G255" t="s">
+        <v>304</v>
+      </c>
+      <c r="H255">
+        <v>24900</v>
+      </c>
+      <c r="I255" t="s">
+        <v>79</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>415</v>
+      </c>
+      <c r="F256" t="s">
+        <v>429</v>
+      </c>
+      <c r="G256" t="s">
+        <v>305</v>
+      </c>
+      <c r="H256">
+        <v>239000</v>
+      </c>
+      <c r="I256" t="s">
+        <v>79</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>416</v>
+      </c>
+      <c r="F257" t="s">
+        <v>429</v>
+      </c>
+      <c r="G257" t="s">
+        <v>305</v>
+      </c>
+      <c r="H257">
+        <v>239000</v>
+      </c>
+      <c r="I257" t="s">
+        <v>79</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s">
+        <v>417</v>
+      </c>
+      <c r="F258" t="s">
+        <v>429</v>
+      </c>
+      <c r="G258" t="s">
+        <v>306</v>
+      </c>
+      <c r="H258">
+        <v>19900</v>
+      </c>
+      <c r="I258" t="s">
+        <v>79</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>418</v>
+      </c>
+      <c r="F259" t="s">
+        <v>429</v>
+      </c>
+      <c r="G259" t="s">
+        <v>307</v>
+      </c>
+      <c r="H259">
+        <v>29000</v>
+      </c>
+      <c r="I259" t="s">
+        <v>79</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s">
+        <v>419</v>
+      </c>
+      <c r="F260" t="s">
+        <v>429</v>
+      </c>
+      <c r="G260" t="s">
+        <v>306</v>
+      </c>
+      <c r="H260">
+        <v>48080</v>
+      </c>
+      <c r="I260" t="s">
+        <v>79</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2</v>
+      </c>
+      <c r="E261" t="s">
+        <v>420</v>
+      </c>
+      <c r="F261" t="s">
+        <v>77</v>
+      </c>
+      <c r="G261" t="s">
+        <v>308</v>
+      </c>
+      <c r="H261">
+        <v>26000</v>
+      </c>
+      <c r="I261" t="s">
+        <v>79</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s">
+        <v>421</v>
+      </c>
+      <c r="F262" t="s">
+        <v>77</v>
+      </c>
+      <c r="G262" t="s">
+        <v>309</v>
+      </c>
+      <c r="H262">
+        <v>20000</v>
+      </c>
+      <c r="I262" t="s">
+        <v>79</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D263" s="3">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>422</v>
+      </c>
+      <c r="F263" t="s">
+        <v>77</v>
+      </c>
+      <c r="G263" t="s">
+        <v>309</v>
+      </c>
+      <c r="H263">
+        <v>20000</v>
+      </c>
+      <c r="I263" t="s">
+        <v>79</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>423</v>
+      </c>
+      <c r="F264" t="s">
+        <v>429</v>
+      </c>
+      <c r="G264" t="s">
+        <v>281</v>
+      </c>
+      <c r="H264">
+        <v>5100000</v>
+      </c>
+      <c r="I264" t="s">
+        <v>79</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>424</v>
+      </c>
+      <c r="F265" t="s">
+        <v>429</v>
+      </c>
+      <c r="G265" t="s">
+        <v>282</v>
+      </c>
+      <c r="H265">
+        <v>1409000</v>
+      </c>
+      <c r="I265" t="s">
+        <v>79</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>239</v>
+      </c>
+      <c r="F266" t="s">
+        <v>429</v>
+      </c>
+      <c r="G266" t="s">
+        <v>283</v>
+      </c>
+      <c r="H266">
+        <v>409000</v>
+      </c>
+      <c r="I266" t="s">
+        <v>79</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>239</v>
+      </c>
+      <c r="F267" t="s">
+        <v>429</v>
+      </c>
+      <c r="G267" t="s">
+        <v>284</v>
+      </c>
+      <c r="H267">
+        <v>899000</v>
+      </c>
+      <c r="I267" t="s">
+        <v>79</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>425</v>
+      </c>
+      <c r="F268" t="s">
+        <v>77</v>
+      </c>
+      <c r="G268" t="s">
+        <v>310</v>
+      </c>
+      <c r="H268">
+        <v>9500</v>
+      </c>
+      <c r="I268" t="s">
+        <v>79</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2">
+        <v>44139</v>
+      </c>
+      <c r="D269" s="3">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>426</v>
+      </c>
+      <c r="F269" t="s">
+        <v>77</v>
+      </c>
+      <c r="G269" t="s">
+        <v>310</v>
+      </c>
+      <c r="H269">
+        <v>9500</v>
+      </c>
+      <c r="I269" t="s">
+        <v>79</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <v>44140</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>427</v>
+      </c>
+      <c r="F270" t="s">
+        <v>429</v>
+      </c>
+      <c r="G270" t="s">
+        <v>311</v>
+      </c>
+      <c r="H270">
+        <v>124700</v>
+      </c>
+      <c r="I270" t="s">
+        <v>79</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O270" xr:uid="{7DE5223F-CF1A-4DDA-83E1-2F6BDCC887A3}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
